--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355299.6856475109</v>
+        <v>376039.6593209953</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556149</v>
+        <v>2629876.587221765</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839638</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4847786.924562561</v>
+        <v>4902568.078488211</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.04785205983618</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>12.35200489467393</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="13">
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.59002526031614</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2372,7 +2372,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>18.55597406227221</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>96.52468151912598</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,10 +2691,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.809496073036132</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.0120249334811</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.3051264201769</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,25 +3269,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>119.3132525143587</v>
+        <v>159.2222148998135</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>82.46119763909351</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>26.88280230971433</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>229.0204371761346</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>201.7212010647393</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>136.2868555448613</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>51.51356272282277</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M2" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U2" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M3" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>24.70163820858575</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I4" t="n">
-        <v>24.70163820858575</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J4" t="n">
-        <v>24.70163820858575</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H6" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M6" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43906297690118</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T8" t="n">
-        <v>26.7539638887914</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U8" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V8" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W8" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X8" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C9" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I10" t="n">
-        <v>30.07591440498301</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C11" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D11" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E11" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F11" t="n">
-        <v>54.62267627294912</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="G11" t="n">
-        <v>54.62267627294912</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="H11" t="n">
-        <v>42.14590365206637</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I11" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U11" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V11" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W11" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X11" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>84.14957704396423</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>110.3601010412646</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G13" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H13" t="n">
-        <v>57.94462678914073</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I13" t="n">
-        <v>30.07591440498301</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C14" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D14" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E14" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F14" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L14" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M14" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N14" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U14" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V14" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W14" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X14" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>29.52132702853827</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O15" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>110.3601010412646</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="U15" t="n">
-        <v>110.3601010412646</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="V15" t="n">
-        <v>110.3601010412646</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="W15" t="n">
-        <v>82.49138865710684</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="X15" t="n">
-        <v>54.62267627294912</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="Y15" t="n">
-        <v>30.07591440498301</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H16" t="n">
-        <v>24.70163820858575</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>24.70163820858575</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.70163820858575</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N17" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2764642733967</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T17" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U17" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F18" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G18" t="n">
-        <v>78.36807964162378</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H18" t="n">
-        <v>38.38436553875449</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I18" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="S19" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>527.5764290961142</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>527.5764290961142</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X20" t="n">
-        <v>527.5764290961142</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W21" t="n">
-        <v>125.0774898247174</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X21" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5947,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6075,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>569.7098081763618</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>569.7098081763618</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>866.5574772084888</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>693.1401326591576</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>490.9535380179237</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6418,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44.28007843568128</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V30" t="n">
-        <v>252.1315786412141</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W30" t="n">
-        <v>252.1315786412141</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X30" t="n">
-        <v>44.28007843568128</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.28007843568128</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="31">
@@ -6649,10 +6649,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6780,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>901.1226843791444</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>901.1226843791444</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="V33" t="n">
-        <v>526.7184526376595</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2696759935595</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X33" t="n">
-        <v>193.7341723913397</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
-        <v>710.516763498309</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E35" t="n">
-        <v>710.516763498309</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F35" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W36" t="n">
-        <v>670.1213740781145</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X36" t="n">
-        <v>670.1213740781145</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.1213740781145</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7135,10 +7135,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>601.5428246748836</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>601.5428246748836</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D38" t="n">
-        <v>601.5428246748836</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E38" t="n">
-        <v>358.0940480307835</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F38" t="n">
-        <v>358.0940480307835</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G38" t="n">
-        <v>114.6452713866835</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H38" t="n">
-        <v>114.6452713866835</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7351180204444</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7351180204444</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>933.8659450146204</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>705.6423267510095</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>470.4902185192667</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
         <v>829.5248650203655</v>
@@ -7357,25 +7357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>712.3229597502562</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="C41" t="n">
-        <v>712.3229597502562</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="D41" t="n">
-        <v>712.3229597502562</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="E41" t="n">
-        <v>480.9891848248677</v>
+        <v>496.626357174339</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>104.1029673515831</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y41" t="n">
-        <v>712.3229597502562</v>
+        <v>707.0094349923255</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.5287969080035</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>19.07576762687648</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="D42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>143.6791950319282</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4094278363015</v>
+        <v>225.6232706630674</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1396606406747</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="N42" t="n">
-        <v>823.869893445048</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>846.6871901912091</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>864.0478469643134</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>632.7140720389249</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>401.3802971135364</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>193.5287969080035</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.5287969080035</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C44" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D44" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>44.53106090472204</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>44.53106090472204</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>44.53106090472204</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>42.14590365206637</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M44" t="n">
-        <v>84.14957704396423</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N44" t="n">
-        <v>110.3601010412646</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W44" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X44" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M45" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N45" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O45" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V45" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C46" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D46" t="n">
-        <v>24.88271652639035</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>255.8883403615408</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8462,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>255.8883403615408</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8541,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L14" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>306.1360004134264</v>
       </c>
       <c r="L41" t="n">
-        <v>370.1704078131012</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>347.3483102710314</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>360.3621492594679</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>165.6440189355163</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22595,16 +22595,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>184.7187753369589</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>223.7556276475204</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>300.1622332098187</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
-        <v>119.8550403043226</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E3" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9687459771361</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>330.4074129430184</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>391.0014432658486</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22832,25 +22832,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>113.0422229139242</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>137.1793204476034</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23066,16 +23066,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T8" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,13 +23157,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>327.1227972210932</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="13">
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.6371472471234</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I13" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.4325474141941</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>166.0458411930903</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.3814015280179</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23668,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9687459771361</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>169.4361926244048</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>226.4708732943921</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>105.4853354315433</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G18" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>55.27774534968376</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>85.37159280401211</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>363.5805828371576</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0541832853293</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.7948004025077</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>262.9346646783187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.3854080187026</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.633152633517156</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,10 +24579,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24728,25 +24728,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>367.9216046054329</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>147.9595530161019</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,22 +24807,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>1.929357147493732</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24889,13 +24889,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,19 +24996,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>37.85270773246624</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25056,10 +25056,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>117.13283663728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,25 +25157,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25287,16 +25287,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>132.3817306465609</v>
+        <v>92.47276826110615</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,31 +25388,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>128.0146919313124</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25479,16 +25479,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>85.35264192678214</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,10 +25521,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25567,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>152.9099328961272</v>
+        <v>173.6511230324551</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>186.2823003390004</v>
+        <v>178.836744054864</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>184.5167375913142</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>11.15821001977744</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>174.427819358152</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25837,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,10 +25868,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>319.8175627926938</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>337.113496435638</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,19 +25995,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26026,19 +26026,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>121.0254477578962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>123.9852032860598</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>152.2496201461753</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26077,16 +26077,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9329730762748</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345927.8927783795</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345927.8927783795</v>
+        <v>355301.6422752917</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345927.8927783795</v>
+        <v>355301.6422752917</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345927.8927783795</v>
+        <v>355301.6422752917</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345927.8927783795</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490134.1347036286</v>
+        <v>495427.2356367889</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345927.8927783797</v>
+        <v>355301.6422752917</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74945.90033124233</v>
+        <v>76974.81962490579</v>
       </c>
       <c r="C2" t="n">
-        <v>74945.90033124233</v>
+        <v>76974.81962490579</v>
       </c>
       <c r="D2" t="n">
-        <v>74945.90033124233</v>
+        <v>76974.81962490581</v>
       </c>
       <c r="E2" t="n">
-        <v>74945.90033124233</v>
+        <v>76974.81962490582</v>
       </c>
       <c r="F2" t="n">
-        <v>74945.90033124233</v>
+        <v>76974.81962490578</v>
       </c>
       <c r="G2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26341,19 +26341,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="M2" t="n">
         <v>108004.437145366</v>
       </c>
-      <c r="M2" t="n">
-        <v>108004.4371453661</v>
-      </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>106158.8985669242</v>
+        <v>107304.5740098336</v>
       </c>
       <c r="P2" t="n">
-        <v>74945.90033124229</v>
+        <v>76974.81962490578</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19431.86900355542</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="C4" t="n">
-        <v>19431.86900355542</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="D4" t="n">
-        <v>19431.86900355542</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="E4" t="n">
-        <v>19431.86900355542</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="F4" t="n">
-        <v>19431.86900355543</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="G4" t="n">
-        <v>19976.76610571042</v>
+        <v>18006.507495794</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>27814.59390607344</v>
+        <v>25114.1863689511</v>
       </c>
       <c r="P4" t="n">
-        <v>19431.86900355542</v>
+        <v>17830.0749817395</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10962.90575654676</v>
+        <v>9844.977324803476</v>
       </c>
       <c r="C6" t="n">
-        <v>20208.95779185968</v>
+        <v>23110.44492388638</v>
       </c>
       <c r="D6" t="n">
-        <v>20208.95779185968</v>
+        <v>23110.4449238864</v>
       </c>
       <c r="E6" t="n">
-        <v>53836.55779185968</v>
+        <v>56738.04492388642</v>
       </c>
       <c r="F6" t="n">
-        <v>53836.55779185968</v>
+        <v>56738.04492388637</v>
       </c>
       <c r="G6" t="n">
-        <v>51304.01895630315</v>
+        <v>55773.09035235328</v>
       </c>
       <c r="H6" t="n">
-        <v>10692.78904199938</v>
+        <v>14947.93319866003</v>
       </c>
       <c r="I6" t="n">
-        <v>65040.52705059445</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="J6" t="n">
-        <v>57821.76248138428</v>
+        <v>57711.61626518128</v>
       </c>
       <c r="K6" t="n">
-        <v>65040.52705059445</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="L6" t="n">
-        <v>65040.52705059442</v>
+        <v>68068.50016898512</v>
       </c>
       <c r="M6" t="n">
-        <v>65040.52705059448</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>65040.52705059448</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="O6" t="n">
-        <v>64419.86208054173</v>
+        <v>67813.25523849804</v>
       </c>
       <c r="P6" t="n">
-        <v>53836.55779185964</v>
+        <v>56738.04492388637</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L14" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>86.04614936844587</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4039928431139</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>208.7939304911573</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.04777449107182</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209953</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.078488211</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1300,22 +1302,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1446,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="15">
@@ -1692,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>4.64380326230721</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2372,7 +2374,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,49 +2487,49 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.52468151912598</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>60.57168964002607</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.0120249334811</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="33">
@@ -3111,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.3051264201769</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>108.2953254812188</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,70 +3186,70 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>159.2222148998135</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,67 +3426,67 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>26.88280230971433</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>5.873273618474491</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>136.2868555448613</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X5" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U8" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V8" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W8" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X8" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y8" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D11" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E11" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F11" t="n">
-        <v>95.20412760976917</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G11" t="n">
-        <v>55.22041350689989</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2366994040306</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C14" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C15" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D15" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F15" t="n">
-        <v>3.920842809732961</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>43.90455691260225</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>43.90455691260225</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>43.90455691260225</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>43.90455691260225</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>43.90455691260225</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>751.6061463797154</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F18" t="n">
-        <v>138.0185621377561</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>93.44061023954541</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>959.3664451446693</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>751.6061463797154</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5843,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>866.5574772084888</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>693.1401326591576</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>490.9535380179237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>226.999225972243</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>80.46466799912795</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>636.61285340344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>401.4607451716973</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6649,10 +6651,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>463.7839815061678</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>463.7839815061678</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>901.1226843791444</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>901.1226843791444</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>698.9360897379105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>698.9360897379105</v>
+        <v>854.6679378528395</v>
       </c>
       <c r="V33" t="n">
-        <v>463.7839815061678</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="W33" t="n">
-        <v>463.7839815061678</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X33" t="n">
-        <v>463.7839815061678</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y33" t="n">
-        <v>463.7839815061678</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>30.58726043968704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>30.58726043968704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>30.58726043968704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>401.5856725968725</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>283.2696759935595</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C39" t="n">
-        <v>283.2696759935595</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D39" t="n">
-        <v>283.2696759935595</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E39" t="n">
-        <v>283.2696759935595</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>136.7351180204444</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7351180204444</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2696759935595</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="X39" t="n">
-        <v>283.2696759935595</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="Y39" t="n">
-        <v>283.2696759935595</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>707.0094349923255</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>707.0094349923255</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>707.0094349923255</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>496.626357174339</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6232706630674</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7246041887357</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.36807964162378</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C44" t="n">
-        <v>78.36807964162378</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>38.38436553875449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>38.38436553875449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>79.95943146291799</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L42" t="n">
-        <v>347.3483102710314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22835,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23069,25 +23071,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D9" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.0612034935604</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23188,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,28 +23260,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>325.689014809167</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23334,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="15">
@@ -23580,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>166.0458411930903</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>95.51403089033592</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.37159280401211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.0541832853293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24060,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>32.605133915851</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>201.9390274350188</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>230.1618975371121</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24291,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24336,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.633152633517156</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24728,25 +24730,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>348.5473453077446</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>76.77182752318456</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,13 +24815,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>1.929357147493732</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24889,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="33">
@@ -24999,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.85270773246624</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>92.47276826110615</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>85.35264192678214</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.2914550763471</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6511230324551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>11.15821001977744</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25868,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>319.8175627926938</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3464931104212</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238464</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.2356367889</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752917</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26341,7 +26343,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26352,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490578</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583863</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388638</v>
+        <v>23392.10990182809</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.4449238864</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.04492388642</v>
+        <v>57019.70990182806</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388637</v>
+        <v>57019.70990182807</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235328</v>
+        <v>14106.06526851279</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866003</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898509</v>
+        <v>68068.50016898512</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518128</v>
+        <v>56521.58205899422</v>
       </c>
       <c r="K6" t="n">
         <v>68068.50016898509</v>
       </c>
       <c r="L6" t="n">
-        <v>68068.50016898512</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="M6" t="n">
         <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>68068.50016898509</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="O6" t="n">
-        <v>67813.25523849804</v>
+        <v>20688.62195152132</v>
       </c>
       <c r="P6" t="n">
-        <v>56738.04492388637</v>
+        <v>68068.50016898511</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L42" t="n">
-        <v>208.7939304911573</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>37.98452839772582</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372706.9744652318</v>
+        <v>265533.4723004685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5118051.369601971</v>
+        <v>5632778.038700014</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162454</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.16190956546852</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>38.87161743162454</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>237.3811362441418</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>47.09925417175987</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.64380326230721</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -2377,7 +2377,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>93.2458854790664</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,10 +2614,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>60.57168964002607</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,23 +3028,23 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>108.2953254812188</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3596,16 +3596,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>5.873273618474491</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V2" t="n">
-        <v>3.530573790338288</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W2" t="n">
-        <v>3.530573790338288</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>3.530573790338288</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>137.2644294849704</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>92.68647758675968</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>48.10852568854899</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>48.10852568854899</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>134.6031257566472</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>134.6031257566472</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>48.10852568854899</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>48.10852568854899</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>131.9507376187037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>131.9507376187037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D9" t="n">
-        <v>42.79483382228227</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>226.0936023295671</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>66.85614732411159</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>66.85614732411159</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>66.85614732411159</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.9507376187037</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C15" t="n">
-        <v>131.9507376187037</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.9507376187037</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>751.6061463797154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>959.3664451446693</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>959.3664451446693</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>959.3664451446693</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>959.3664451446693</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>959.3664451446693</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>959.3664451446693</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X18" t="n">
-        <v>959.3664451446693</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>751.6061463797154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>122.6530896684844</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>122.6530896684844</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>122.6530896684844</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>122.6530896684844</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X23" t="n">
-        <v>122.6530896684844</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.6530896684844</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>378.9756972971371</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>204.52266801601</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>204.52266801601</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>204.52266801601</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>204.52266801601</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>204.52266801601</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>560.6897102588255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>386.2366809776985</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>386.2366809776985</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>226.999225972243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>80.46466799912795</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6657,13 +6657,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>854.6679378528395</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>619.5158296210968</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>376.0670529769968</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>168.215552771464</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.215552771464</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="37">
@@ -7125,13 +7125,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>649.1947276839472</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C39" t="n">
-        <v>474.7416984028202</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D39" t="n">
-        <v>325.807288741569</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>856.9550264489012</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="U39" t="n">
-        <v>856.9550264489012</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="V39" t="n">
-        <v>856.9550264489012</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W39" t="n">
-        <v>856.9550264489012</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X39" t="n">
-        <v>856.9550264489012</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y39" t="n">
-        <v>649.1947276839472</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7605,7 +7605,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>75.50937722860556</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8069,16 +8069,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>222.4246658592332</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,10 +11153,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>214.2025165704176</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0849115331593</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22837,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>161.2931112631971</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31384691677781</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>72.21291509797332</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,19 +23342,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>65.13619006473658</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>36.26995425049819</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,22 +23813,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.51403089033592</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>32.605133915851</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>262.9346646783187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>18.98955875743006</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>140.9771323296006</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>76.77182752318456</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.8123701683061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>138.0478248410352</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>38.04093029885675</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>149.5179749360441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25484,16 +25484,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>194.2914550763471</v>
+        <v>154.1292632355913</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>117.0425472111068</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25997,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358695.7022238464</v>
+        <v>365364.2670080833</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358695.7022238467</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77709.45347827919</v>
+        <v>79152.84384797489</v>
       </c>
       <c r="C2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>77709.45347827916</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26334,7 +26334,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26355,7 +26355,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18006.507495794</v>
+        <v>18353.1577223226</v>
       </c>
       <c r="C4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8602.403897583863</v>
+        <v>-8452.118848163063</v>
       </c>
       <c r="C6" t="n">
-        <v>23392.10990182809</v>
+        <v>-38353.43263772351</v>
       </c>
       <c r="D6" t="n">
-        <v>23392.10990182807</v>
+        <v>22222.88954894464</v>
       </c>
       <c r="E6" t="n">
-        <v>57019.70990182806</v>
+        <v>55850.48954894461</v>
       </c>
       <c r="F6" t="n">
-        <v>57019.70990182807</v>
+        <v>55850.48954894467</v>
       </c>
       <c r="G6" t="n">
-        <v>14106.06526851279</v>
+        <v>55850.48954894461</v>
       </c>
       <c r="H6" t="n">
-        <v>68068.50016898508</v>
+        <v>55850.48954894464</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898512</v>
+        <v>55850.48954894463</v>
       </c>
       <c r="J6" t="n">
-        <v>56521.58205899422</v>
+        <v>41849.25740866533</v>
       </c>
       <c r="K6" t="n">
-        <v>68068.50016898509</v>
+        <v>7593.536615312016</v>
       </c>
       <c r="L6" t="n">
-        <v>68068.50016898509</v>
+        <v>55850.48954894464</v>
       </c>
       <c r="M6" t="n">
-        <v>68068.50016898511</v>
+        <v>55850.48954894463</v>
       </c>
       <c r="N6" t="n">
-        <v>68068.50016898511</v>
+        <v>55850.48954894464</v>
       </c>
       <c r="O6" t="n">
-        <v>20688.62195152132</v>
+        <v>55850.48954894464</v>
       </c>
       <c r="P6" t="n">
-        <v>68068.50016898511</v>
+        <v>55850.48954894465</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>91.0829537758999</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,10 +37873,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
